--- a/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -260,34 +260,19 @@
     <t>Lesbrieven: Financiele zelfredzaamheid. Bedrijf starten.</t>
   </si>
   <si>
-    <t>A, B1, B2, B3, B4, F1, F2</t>
-  </si>
-  <si>
     <t>Opdracht: Keuzeonderwerp</t>
   </si>
   <si>
     <t>Lesbrieven: Marktverovering. Personeel en interne organisatie. Onderneem het zelf.</t>
   </si>
   <si>
-    <t>A, D1, D2, E1, E2, F1, F2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lesbrieven: Bedrijf starten. Financiering en verslaggeving. </t>
-  </si>
-  <si>
-    <t>B1, B2, B3, B4, F1, F2, G</t>
   </si>
   <si>
     <t>Lesbrieven: Financiering en verslaggeving. Rekenwonder. Investeren.</t>
   </si>
   <si>
-    <t>D1, D2, F1, F2, G</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lesbrieven: Het resultaat. FinanciÃ«le zelfredzaamheid. Onderneem het zelf (hoofdstuk 3). Markverovering. Financiering en verslaggeving.  </t>
-  </si>
-  <si>
-    <t>A, B, C, D, E, F, G</t>
   </si>
   <si>
     <t>A</t>
@@ -308,13 +293,7 @@
     <t>Lesbrief FinanciÃ«le zelfredzaamheid en Onderneem het zelf</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Lesbrieven Bedrijf starten en personeelsbeleid en Interne organisatie</t>
-  </si>
-  <si>
-    <t>B, C</t>
   </si>
   <si>
     <t>Lesbrief Circulaire economie</t>
@@ -323,10 +302,16 @@
     <t>Lesbrief Marktverovering en Investeren</t>
   </si>
   <si>
-    <t>D, E</t>
+    <t>Domein A: vaardigheden komen in elke schriftelijke toets terug</t>
   </si>
   <si>
-    <t>Domein A: vaardigheden komen in elke schriftelijke toets terug</t>
+    <t>Lesbrief Financiering en verslaggeving</t>
+  </si>
+  <si>
+    <t>Lesbrief Het Resultaat</t>
+  </si>
+  <si>
+    <t>Alle Lesbrieven + keuzeonderwerp: Circulaire economie</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1328,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1351,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1370,9 +1355,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1387,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1406,9 +1389,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1423,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -1442,9 +1423,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1460,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -1479,9 +1458,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1489,7 +1466,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2241,7 +2218,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2355,7 +2332,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2510,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2531,9 +2508,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2542,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2563,9 +2538,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2574,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2595,9 +2568,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>74</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2606,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I21" s="27">
         <v>2</v>
@@ -2627,9 +2598,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2693,7 +2662,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3147,7 +3116,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3261,7 +3230,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3617,66 +3586,84 @@
     <row r="30" spans="1:17" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
+      <c r="G30" s="27">
+        <v>1</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
+      <c r="L30" s="27">
+        <v>100</v>
+      </c>
       <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="31">
+        <v>2</v>
+      </c>
       <c r="O30" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
+      <c r="G31" s="27">
+        <v>2</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="27">
+        <v>100</v>
+      </c>
       <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="31">
+        <v>2</v>
+      </c>
       <c r="O31" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
+      <c r="G32" s="27">
+        <v>3</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="27">
+        <v>100</v>
+      </c>
       <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="31">
+        <v>2</v>
+      </c>
       <c r="O32" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P32" s="32"/>
     </row>
@@ -4117,7 +4104,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5072,7 +5059,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5888,7 +5875,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6704,7 +6691,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7443,9 +7430,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7481,9 +7466,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>77</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7498,7 +7481,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -7517,9 +7500,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>74</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7535,7 +7516,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -7556,9 +7537,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7566,7 +7545,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8432,7 +8411,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8587,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -8608,9 +8587,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8619,7 +8596,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -8640,9 +8617,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8651,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -8672,9 +8647,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9318,7 +9291,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
@@ -254,7 +254,7 @@
     <t>H</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesbrief: FinanciÃ«le zelfredzaamheid. </t>
+    <t xml:space="preserve">Lesbrief: Financiële zelfredzaamheid. </t>
   </si>
   <si>
     <t>Lesbrieven: Financiele zelfredzaamheid. Bedrijf starten.</t>
@@ -272,7 +272,7 @@
     <t>Lesbrieven: Financiering en verslaggeving. Rekenwonder. Investeren.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesbrieven: Het resultaat. FinanciÃ«le zelfredzaamheid. Onderneem het zelf (hoofdstuk 3). Markverovering. Financiering en verslaggeving.  </t>
+    <t xml:space="preserve">Lesbrieven: Het resultaat. Financiële zelfredzaamheid. Onderneem het zelf (hoofdstuk 3). Markverovering. Financiering en verslaggeving.  </t>
   </si>
   <si>
     <t>A</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">Lesbrief Bedrijf starten </t>
   </si>
   <si>
-    <t>Lesbrief FinanciÃ«le zelfredzaamheid en Onderneem het zelf</t>
+    <t>Lesbrief Financiële zelfredzaamheid en Onderneem het zelf</t>
   </si>
   <si>
     <t>Lesbrieven Bedrijf starten en personeelsbeleid en Interne organisatie</t>
@@ -1330,7 +1330,9 @@
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>472</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1364,7 +1366,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>473</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1398,7 +1402,9 @@
       <c r="B8" s="2">
         <v>142</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>474</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1433,7 +1439,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>475</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -1466,7 +1474,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1538,7 +1546,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>352</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1558,9 +1568,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1752,7 +1760,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>353</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1957,7 +1967,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>354</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2332,7 +2344,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2404,7 +2416,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>355</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2481,7 +2495,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>476</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2511,7 +2527,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>477</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2541,7 +2559,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>478</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2571,7 +2591,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>479</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>4</v>
@@ -2648,7 +2670,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>356</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2855,7 +2879,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>357</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3230,7 +3256,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3302,7 +3328,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>358</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3514,7 +3542,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>359</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3584,7 +3614,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>480</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3612,7 +3644,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>481</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3640,7 +3674,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>482</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3737,7 +3773,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>360</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3750,9 +3788,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4104,7 +4140,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5059,7 +5095,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5875,7 +5911,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6691,7 +6727,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7405,7 +7441,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>465</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7439,7 +7477,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>466</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7475,7 +7515,9 @@
       <c r="B8" s="2">
         <v>140</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>467</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7510,7 +7552,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>468</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -7545,7 +7589,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7617,7 +7661,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>348</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7637,9 +7683,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7831,7 +7875,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>349</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8411,7 +8457,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8483,7 +8529,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>350</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8560,7 +8608,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>469</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8590,7 +8640,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>470</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8620,7 +8672,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>471</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8719,7 +8773,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>351</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8732,9 +8788,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9291,7 +9345,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>BECO</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -260,19 +264,34 @@
     <t>Lesbrieven: Financiele zelfredzaamheid. Bedrijf starten.</t>
   </si>
   <si>
+    <t>A, B1, B2, B3, B4, F1, F2</t>
+  </si>
+  <si>
     <t>Opdracht: Keuzeonderwerp</t>
   </si>
   <si>
     <t>Lesbrieven: Marktverovering. Personeel en interne organisatie. Onderneem het zelf.</t>
   </si>
   <si>
+    <t>A, D1, D2, E1, E2, F1, F2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrieven: Bedrijf starten. Financiering en verslaggeving. </t>
+  </si>
+  <si>
+    <t>B1, B2, B3, B4, F1, F2, G</t>
   </si>
   <si>
     <t>Lesbrieven: Financiering en verslaggeving. Rekenwonder. Investeren.</t>
   </si>
   <si>
+    <t>D1, D2, F1, F2, G</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrieven: Het resultaat. Financiële zelfredzaamheid. Onderneem het zelf (hoofdstuk 3). Markverovering. Financiering en verslaggeving.  </t>
+  </si>
+  <si>
+    <t>A, B, C, D, E, F, G</t>
   </si>
   <si>
     <t>A</t>
@@ -293,7 +312,13 @@
     <t>Lesbrief Financiële zelfredzaamheid en Onderneem het zelf</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>Lesbrieven Bedrijf starten en personeelsbeleid en Interne organisatie</t>
+  </si>
+  <si>
+    <t>B, C</t>
   </si>
   <si>
     <t>Lesbrief Circulaire economie</t>
@@ -302,16 +327,25 @@
     <t>Lesbrief Marktverovering en Investeren</t>
   </si>
   <si>
+    <t>D, E</t>
+  </si>
+  <si>
     <t>Domein A: vaardigheden komen in elke schriftelijke toets terug</t>
   </si>
   <si>
     <t>Lesbrief Financiering en verslaggeving</t>
   </si>
   <si>
+    <t>D, F, G</t>
+  </si>
+  <si>
     <t>Lesbrief Het Resultaat</t>
   </si>
   <si>
     <t>Alle Lesbrieven + keuzeonderwerp: Circulaire economie</t>
+  </si>
+  <si>
+    <t>A, B, C, D, E, F, G, H</t>
   </si>
 </sst>
 </file>
@@ -1240,12 +1274,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1267,25 +1301,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>BECO leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>24</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1327,35 +1357,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2">
-        <v>472</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1363,35 +1383,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>473</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1399,35 +1409,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>142</v>
-      </c>
-      <c r="D8" s="2">
-        <v>474</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1437,34 +1437,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>475</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1474,7 +1466,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1541,17 +1533,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>352</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1566,7 +1556,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1583,7 +1573,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>BECO leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1760,12 +1750,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>353</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1790,7 +1778,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>BECO leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1967,12 +1955,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>354</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2046,44 +2032,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2147,7 +2095,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2178,7 +2126,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>BECO leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>BECO leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2230,26 +2178,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D6" s="2">
+        <v>472</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2258,26 +2214,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>473</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -2286,26 +2250,34 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>143</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="D8" s="2">
+        <v>474</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -2315,26 +2287,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>475</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -2344,7 +2324,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2411,17 +2391,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2436,7 +2416,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2453,7 +2433,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>BECO leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>BECO leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2495,130 +2475,90 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>476</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>477</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>478</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>479</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -2671,11 +2611,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2685,9 +2625,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2702,7 +2640,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>BECO leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>BECO leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2880,11 +2818,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3017,6 +2955,926 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>BECO leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>143</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>355</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>BECO leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>476</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>477</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>478</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>479</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>356</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>BECO leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>357</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3142,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3256,7 +4114,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3622,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3639,9 +4497,11 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3652,7 +4512,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3669,9 +4529,11 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3682,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3699,9 +4561,11 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -4140,7 +5004,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5095,7 +5959,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5911,7 +6775,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6535,12 +7399,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6562,6 +7426,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>BECO leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>346</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>BECO leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>347</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>BECO leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6727,7 +8456,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7307,910 +9036,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>BECO leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>465</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>466</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>140</v>
-      </c>
-      <c r="D8" s="2">
-        <v>467</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>468</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>1</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>348</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>BECO leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>349</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>BECO leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8260,7 +9085,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8291,7 +9116,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>BECO leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>BECO leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8343,26 +9168,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>465</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -8371,56 +9204,78 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>466</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>141</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="D8" s="2">
+        <v>467</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8428,28 +9283,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>468</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8457,7 +9324,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8524,17 +9391,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8549,7 +9416,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8566,7 +9433,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>BECO leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>BECO leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8608,98 +9475,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>469</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>470</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>471</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -8774,11 +9611,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8803,7 +9640,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>BECO leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>BECO leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8983,7 +9820,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9153,12 +9990,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9180,21 +10017,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>BECO leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>24</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9236,7 +10077,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9262,7 +10105,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9288,7 +10133,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>141</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9316,7 +10163,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9345,7 +10192,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9412,15 +10259,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>350</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9435,7 +10284,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9452,7 +10301,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>BECO leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9494,70 +10343,106 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>469</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>470</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>471</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9629,10 +10514,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>351</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9657,7 +10544,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>BECO leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9837,7 +10724,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BECO leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9911,6 +10798,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809270833</v>
+        <v>44341.376643519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2317,7 +2317,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809270833</v>
+        <v>44341.376643519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3437,7 +3437,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809270833</v>
+        <v>44341.376643519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4551,7 +4551,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809270833</v>
+        <v>44341.376643519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5631,7 +5631,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809270833</v>
+        <v>44341.376643519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6743,7 +6743,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809270833</v>
+        <v>44341.376643519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7873,7 +7873,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809270833</v>
+        <v>44341.376643519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8983,7 +8983,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
@@ -825,13 +825,31 @@
     <t>H</t>
   </si>
   <si>
+    <t xml:space="preserve">Lesbrief: Financiële zelfredzaamheid. </t>
+  </si>
+  <si>
     <t>startJaar</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Financiele zelfredzaamheid. Bedrijf starten.</t>
+  </si>
+  <si>
+    <t>A, B1, B2, B3, B4, F1, F2</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Opdracht: Keuzeonderwerp</t>
+  </si>
+  <si>
     <t>eindJaar</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Marktverovering. Personeel en interne organisatie. Onderneem het zelf.</t>
+  </si>
+  <si>
+    <t>A, D1, D2, E1, E2, F1, F2</t>
   </si>
   <si>
     <t>vandaag</t>
@@ -850,24 +868,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesbrief: Financiële zelfredzaamheid. </t>
-  </si>
-  <si>
-    <t>Lesbrieven: Financiele zelfredzaamheid. Bedrijf starten.</t>
-  </si>
-  <si>
-    <t>A, B1, B2, B3, B4, F1, F2</t>
-  </si>
-  <si>
-    <t>Opdracht: Keuzeonderwerp</t>
-  </si>
-  <si>
-    <t>Lesbrieven: Marktverovering. Personeel en interne organisatie. Onderneem het zelf.</t>
-  </si>
-  <si>
-    <t>A, D1, D2, E1, E2, F1, F2</t>
   </si>
   <si>
     <t xml:space="preserve">Lesbrieven: Bedrijf starten. Financiering en verslaggeving. </t>
@@ -2294,127 +2294,169 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1040</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1041</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>251</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1042</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1043</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>1</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382731481</v>
+        <v>44342.629930556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2441,7 +2483,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2472,7 +2514,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2493,7 +2535,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2523,7 +2565,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2544,7 +2586,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3381,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>1</v>
@@ -3405,7 +3447,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3419,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>2</v>
@@ -3441,13 +3483,13 @@
         <v>8</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>140</v>
@@ -3461,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I8" s="43">
         <v>1</v>
@@ -3487,7 +3529,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3502,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I9" s="43">
         <v>2</v>
@@ -3524,17 +3566,17 @@
         <v>8</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382731481</v>
+        <v>44342.629930556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3561,7 +3603,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3592,7 +3634,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3613,7 +3655,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3643,7 +3685,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3664,7 +3706,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3745,75 +3787,111 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1037</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1038</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1039</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -4517,7 +4595,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4547,7 +4625,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>141</v>
@@ -4577,7 +4655,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4608,11 +4686,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382731481</v>
+        <v>44342.629930556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4639,7 +4717,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4670,7 +4748,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4691,7 +4769,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4721,7 +4799,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4742,7 +4820,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5606,127 +5684,159 @@
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1051</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1052</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>252</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1053</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1054</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382731481</v>
+        <v>44342.629930556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5753,7 +5863,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5784,7 +5894,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5805,7 +5915,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5835,7 +5945,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5856,7 +5966,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6719,7 +6829,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6757,7 +6867,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>142</v>
@@ -6795,7 +6905,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6834,11 +6944,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382731481</v>
+        <v>44342.629930556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6865,7 +6975,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6896,7 +7006,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6917,7 +7027,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6947,7 +7057,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -6968,7 +7078,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7049,99 +7159,147 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1047</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1048</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1049</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1050</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -7823,7 +7981,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7853,7 +8011,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>143</v>
@@ -7883,7 +8041,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7914,11 +8072,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382731481</v>
+        <v>44342.629930556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7945,7 +8103,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7976,7 +8134,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7997,7 +8155,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8027,7 +8185,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8048,7 +8206,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8449,75 +8607,105 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>1044</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>2</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>1045</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1046</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>2</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -8953,7 +9141,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -8983,7 +9171,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>144</v>
@@ -9013,7 +9201,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9044,11 +9232,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382731481</v>
+        <v>44342.629930556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9075,7 +9263,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9106,7 +9294,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9127,7 +9315,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9157,7 +9345,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9178,7 +9366,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BECO PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -885,7 +885,10 @@
     <t>H</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesbrief: FinanciÃƒÂ«le zelfredzaamheid. </t>
+    <t xml:space="preserve">Lesbrief: Financiële zelfredzaamheid. </t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -894,7 +897,7 @@
     <t>Lesbrieven: Financiele zelfredzaamheid. Bedrijf starten.</t>
   </si>
   <si>
-    <t>A, B1, B2, B3, B4, F1, F2</t>
+    <t>A, B1, B3, B4, F1, F2</t>
   </si>
   <si>
     <t>cid</t>
@@ -906,13 +909,19 @@
     <t>eindJaar</t>
   </si>
   <si>
-    <t>Lesbrieven: Marktverovering. Personeel en interne organisatie. Onderneem het zelf.</t>
+    <t>Lesbrieven: Marktverovering. Onderneem het zelf.</t>
   </si>
   <si>
-    <t>A, D1, D2, E1, E2, F1, F2</t>
+    <t>E en B2</t>
   </si>
   <si>
     <t>vandaag</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Personeelsbeleid en interne organisatie. Bedrijf starten.</t>
+  </si>
+  <si>
+    <t>C en F1</t>
   </si>
   <si>
     <t>huidigStartjaar</t>
@@ -930,22 +939,34 @@
     <t>mavo?</t>
   </si>
   <si>
+    <t>A, B1, B2, B3, B4, F1, F2</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Marktverovering. Personeel en interne organisatie. Onderneem het zelf.</t>
+  </si>
+  <si>
+    <t>A, D1, D2, E1, E2, F1, F2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrieven: Bedrijf starten. Financiering en verslaggeving. </t>
   </si>
   <si>
     <t>B1, B2, B3, B4, F1, F2, G</t>
   </si>
   <si>
-    <t>Lesbrieven: Financiering en verslaggeving. Rekenwonder. Investeren.</t>
+    <t>Lesbrieven: Financiering en verslaggeving. Investeren.</t>
   </si>
   <si>
     <t>D1, D2, F1, F2, G</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesbrieven: Het resultaat. FinanciÃƒÂ«le zelfredzaamheid. Onderneem het zelf (hoofdstuk 3). Markverovering. Financiering en verslaggeving.  </t>
+    <t xml:space="preserve">Lesbrieven: Het resultaat. Financiële zelfredzaamheid. Onderneem het zelf (hoofdstuk 3). Markverovering. Financiering en verslaggeving.  </t>
   </si>
   <si>
     <t>A, B, C, D, E, F, G</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Financiering en verslaggeving. Rekenwonder. Investeren.</t>
   </si>
   <si>
     <t>A</t>
@@ -960,22 +981,22 @@
     <t>Lesbrief Bedrijf starten</t>
   </si>
   <si>
+    <t>Lesbrief Onderneem het zelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrief Bedrijf starten </t>
   </si>
   <si>
-    <t>Lesbrief FinanciÃƒÂ«le zelfredzaamheid en Onderneem het zelf</t>
+    <t>Lesbrief Financiële zelfredzaamheid en Onderneem het zelf</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Lesbrieven Bedrijf starten en personeelsbeleid en Interne organisatie</t>
+    <t>Lesbrieven Bedrijf starten en Personeelsbeleid &amp; Interne organisatie</t>
   </si>
   <si>
     <t>B, C</t>
-  </si>
-  <si>
-    <t>Lesbrief Circulaire economie</t>
   </si>
   <si>
     <t>Lesbrief Marktverovering en Investeren</t>
@@ -984,16 +1005,31 @@
     <t>D, E</t>
   </si>
   <si>
-    <t>Domein A: vaardigheden komen in elke schriftelijke toets terug</t>
+    <t>Circulaire economie</t>
   </si>
   <si>
     <t>Lesbrief Financiering en verslaggeving</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Lesbrieven Bedrijf starten en personeelsbeleid en Interne organisatie</t>
+  </si>
+  <si>
+    <t>Lesbrief Circulaire economie</t>
+  </si>
+  <si>
+    <t>Domein A: vaardigheden komen in elke schriftelijke toets terug</t>
   </si>
   <si>
     <t>D, F, G</t>
   </si>
   <si>
     <t>Lesbrief Het Resultaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesbrieven: .... </t>
   </si>
   <si>
     <t>Alle Lesbrieven + keuzeonderwerp: Circulaire economie</t>
@@ -2226,7 +2262,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2398,8 +2434,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2465,7 +2501,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2478,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2494,13 +2530,13 @@
         <v>8</v>
       </c>
       <c r="N7" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2565,7 +2601,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>251</v>
@@ -2578,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2595,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
         <v>62</v>
@@ -2663,7 +2699,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2674,10 +2710,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2693,13 +2729,13 @@
         <v>8</v>
       </c>
       <c r="N9" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2764,32 +2800,42 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44378.451331019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1116</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="45">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="45"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="46">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>64</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2808,7 +2854,7 @@
       </c>
       <c r="V10" s="7">
         <f>IF(OR(AND($L10&lt;&gt;"",OR($J10=instellingen!$H$5,$J10=instellingen!$H$6,,$J10=instellingen!$H$7)),AND(ISBLANK($L10),OR($J10=instellingen!$H$3,$J10=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="7">
         <f>IF(ISBLANK($M10),1,0)</f>
@@ -2848,12 +2894,12 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2942,7 +2988,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2965,7 +3011,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3004,7 +3050,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3034,7 +3080,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4676,8 +4722,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4743,7 +4789,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4756,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4775,10 +4821,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4843,7 +4889,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>140</v>
@@ -4856,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4873,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
         <v>62</v>
@@ -4941,7 +4987,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4955,7 +5001,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -4974,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5042,11 +5088,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5131,7 +5177,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5220,7 +5266,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5243,7 +5289,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5282,7 +5328,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5312,7 +5358,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5418,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -5437,10 +5483,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5512,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -5531,10 +5577,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5606,7 +5652,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -5625,10 +5671,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -7049,7 +7095,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7137,7 +7183,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>141</v>
@@ -7225,7 +7271,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7314,11 +7360,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7403,7 +7449,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7492,7 +7538,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7515,7 +7561,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7554,7 +7600,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7584,7 +7630,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7690,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -7709,10 +7755,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7784,7 +7830,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -7803,10 +7849,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7878,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -7897,10 +7943,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -9236,7 +9282,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>1051</v>
@@ -9246,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9262,8 +9308,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9329,7 +9375,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9342,7 +9388,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9358,8 +9404,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9425,7 +9471,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>252</v>
@@ -9438,7 +9484,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -9454,8 +9500,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9521,7 +9567,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9532,27 +9578,25 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I9" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="45">
-        <v>100</v>
-      </c>
+      <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9618,30 +9662,38 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44378.451331019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1117</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="45">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="45">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9707,7 +9759,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9796,7 +9848,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9819,7 +9871,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9858,7 +9910,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9888,7 +9940,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11506,7 +11558,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>472</v>
@@ -11516,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11532,8 +11584,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11599,7 +11651,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11612,7 +11664,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11628,8 +11680,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11695,7 +11747,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>142</v>
@@ -11708,7 +11760,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11724,8 +11776,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11791,7 +11843,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11805,7 +11857,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11821,8 +11873,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11888,11 +11940,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11977,7 +12029,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12066,7 +12118,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12089,7 +12141,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12128,7 +12180,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12158,7 +12210,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12264,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12283,10 +12335,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -12355,10 +12407,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12377,10 +12429,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12449,10 +12501,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12471,10 +12523,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12543,21 +12595,19 @@
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I21" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="45">
-        <v>100</v>
-      </c>
+      <c r="L21" s="45"/>
       <c r="M21" s="27" t="s">
         <v>8</v>
       </c>
@@ -12565,10 +12615,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -12632,26 +12682,38 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>1118</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="45"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="45">
+        <v>2</v>
+      </c>
       <c r="J22" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="45"/>
+      <c r="L22" s="45">
+        <v>100</v>
+      </c>
       <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="46">
+        <v>2</v>
+      </c>
       <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
+        <v>64</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>105</v>
+      </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -13824,7 +13886,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13909,7 +13971,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -13997,7 +14059,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>143</v>
@@ -14085,7 +14147,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14174,11 +14236,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14263,7 +14325,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14352,7 +14414,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14375,7 +14437,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14414,7 +14476,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14444,7 +14506,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14550,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14569,10 +14631,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14644,7 +14706,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14663,10 +14725,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14738,7 +14800,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14757,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>62</v>
@@ -14832,7 +14894,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -14851,10 +14913,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15131,7 +15193,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15255,7 +15317,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15272,10 +15334,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15347,7 +15409,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15364,10 +15426,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15439,7 +15501,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15456,10 +15518,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -16142,7 +16204,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16227,7 +16289,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16315,7 +16377,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>144</v>
@@ -16403,7 +16465,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16492,11 +16554,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16581,7 +16643,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16670,7 +16732,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16693,7 +16755,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16732,7 +16794,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16762,7 +16824,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17523,7 +17585,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17540,10 +17602,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17615,7 +17677,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17632,10 +17694,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17707,7 +17769,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17724,10 +17786,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
